--- a/experiments_results/[1] FracFactDesign_screening_results.xlsx
+++ b/experiments_results/[1] FracFactDesign_screening_results.xlsx
@@ -37,7 +37,7 @@
     <t>ccp_alpha</t>
   </si>
   <si>
-    <t>MSE_1</t>
+    <t>MSE</t>
   </si>
 </sst>
 </file>
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I2">
-        <v>232.059</v>
+        <v>177.2322</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>167.225</v>
+        <v>115.573</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -511,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>241.726</v>
+        <v>244.9578</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -537,10 +537,10 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I5">
-        <v>187.393</v>
+        <v>246.0552</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -566,10 +566,10 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>231.448</v>
+        <v>215.73</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -598,7 +598,7 @@
         <v>-1</v>
       </c>
       <c r="I7">
-        <v>159.26</v>
+        <v>169.6102</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -627,7 +627,7 @@
         <v>-1</v>
       </c>
       <c r="I8">
-        <v>240.157</v>
+        <v>245.1066</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -653,10 +653,10 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>195.983</v>
+        <v>244.5798</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -682,10 +682,10 @@
         <v>-1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I10">
-        <v>231.511</v>
+        <v>175.8164</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>162.036</v>
+        <v>119.2136</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -743,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>241.852</v>
+        <v>244.6702</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -769,10 +769,10 @@
         <v>-1</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I13">
-        <v>194.227</v>
+        <v>244.6056</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -798,10 +798,10 @@
         <v>-1</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>231.509</v>
+        <v>216.5326</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -830,7 +830,7 @@
         <v>-1</v>
       </c>
       <c r="I15">
-        <v>164.872</v>
+        <v>173.4158</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -859,7 +859,7 @@
         <v>-1</v>
       </c>
       <c r="I16">
-        <v>241.782</v>
+        <v>246.038</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -885,10 +885,10 @@
         <v>-1</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>185.614</v>
+        <v>244.3648</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -917,7 +917,7 @@
         <v>-1</v>
       </c>
       <c r="I18">
-        <v>130.339</v>
+        <v>173.5898</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -943,10 +943,10 @@
         <v>-1</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>53.792</v>
+        <v>116.6826</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -972,10 +972,10 @@
         <v>-1</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>241.605</v>
+        <v>244.4922</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1004,7 +1004,7 @@
         <v>-1</v>
       </c>
       <c r="I21">
-        <v>177.718</v>
+        <v>245.064</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1033,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>175.103</v>
+        <v>218.1614</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1059,10 +1059,10 @@
         <v>-1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I23">
-        <v>66.345</v>
+        <v>173.5948</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1088,10 +1088,10 @@
         <v>-1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I24">
-        <v>241.078</v>
+        <v>245.099</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1120,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>179.817</v>
+        <v>244.4154</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1149,7 +1149,7 @@
         <v>-1</v>
       </c>
       <c r="I26">
-        <v>153.247</v>
+        <v>173.3496</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1175,10 +1175,10 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>70.952</v>
+        <v>124.498</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1204,10 +1204,10 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>241.262</v>
+        <v>245.2504</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1236,7 +1236,7 @@
         <v>-1</v>
       </c>
       <c r="I29">
-        <v>179.574</v>
+        <v>244.7602</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>176.887</v>
+        <v>217.1228</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1291,10 +1291,10 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I31">
-        <v>71.191</v>
+        <v>172.3396</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1320,10 +1320,10 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I32">
-        <v>240.52</v>
+        <v>245.0282</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1352,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="I33">
-        <v>190.473</v>
+        <v>245.1918</v>
       </c>
     </row>
   </sheetData>
